--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H2">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.1489443744681</v>
+        <v>17.88428466666667</v>
       </c>
       <c r="N2">
-        <v>17.1489443744681</v>
+        <v>53.652854</v>
       </c>
       <c r="O2">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="P2">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="Q2">
-        <v>441.3925605201521</v>
+        <v>524.3910781009838</v>
       </c>
       <c r="R2">
-        <v>441.3925605201521</v>
+        <v>4719.519702908854</v>
       </c>
       <c r="S2">
-        <v>0.002709806112877282</v>
+        <v>0.002839754195483739</v>
       </c>
       <c r="T2">
-        <v>0.002709806112877282</v>
+        <v>0.00283975419548374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H3">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3385197118536</v>
+        <v>12.393653</v>
       </c>
       <c r="N3">
-        <v>12.3385197118536</v>
+        <v>37.180959</v>
       </c>
       <c r="O3">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115111</v>
       </c>
       <c r="P3">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115112</v>
       </c>
       <c r="Q3">
-        <v>317.5781954690928</v>
+        <v>363.3984349618843</v>
       </c>
       <c r="R3">
-        <v>317.5781954690928</v>
+        <v>3270.585914656959</v>
       </c>
       <c r="S3">
-        <v>0.001949682464934508</v>
+        <v>0.001967924843520139</v>
       </c>
       <c r="T3">
-        <v>0.001949682464934508</v>
+        <v>0.00196792484352014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H4">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.77850517441829</v>
+        <v>5.643036666666666</v>
       </c>
       <c r="N4">
-        <v>4.77850517441829</v>
+        <v>16.92911</v>
       </c>
       <c r="O4">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="P4">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="Q4">
-        <v>122.9927970106151</v>
+        <v>165.4613609965677</v>
       </c>
       <c r="R4">
-        <v>122.9927970106151</v>
+        <v>1489.15224896911</v>
       </c>
       <c r="S4">
-        <v>0.0007550798608533028</v>
+        <v>0.0008960289633111729</v>
       </c>
       <c r="T4">
-        <v>0.0007550798608533028</v>
+        <v>0.000896028963311173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H5">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I5">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J5">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.14896106545942</v>
+        <v>4.397218333333333</v>
       </c>
       <c r="N5">
-        <v>4.14896106545942</v>
+        <v>13.191655</v>
       </c>
       <c r="O5">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="P5">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="Q5">
-        <v>106.789112390386</v>
+        <v>128.9323059568505</v>
       </c>
       <c r="R5">
-        <v>106.789112390386</v>
+        <v>1160.390753611655</v>
       </c>
       <c r="S5">
-        <v>0.0006556018733147528</v>
+        <v>0.0006982118347632362</v>
       </c>
       <c r="T5">
-        <v>0.0006556018733147528</v>
+        <v>0.0006982118347632364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H6">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.1489443744681</v>
+        <v>17.88428466666667</v>
       </c>
       <c r="N6">
-        <v>17.1489443744681</v>
+        <v>53.652854</v>
       </c>
       <c r="O6">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="P6">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="Q6">
-        <v>736.6619539648581</v>
+        <v>814.1715613749009</v>
       </c>
       <c r="R6">
-        <v>736.6619539648581</v>
+        <v>7327.544052374106</v>
       </c>
       <c r="S6">
-        <v>0.004522529930331612</v>
+        <v>0.004409013051157752</v>
       </c>
       <c r="T6">
-        <v>0.004522529930331612</v>
+        <v>0.004409013051157751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H7">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.3385197118536</v>
+        <v>12.393653</v>
       </c>
       <c r="N7">
-        <v>12.3385197118536</v>
+        <v>37.180959</v>
       </c>
       <c r="O7">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115111</v>
       </c>
       <c r="P7">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115112</v>
       </c>
       <c r="Q7">
-        <v>530.0220142704794</v>
+        <v>564.213777750689</v>
       </c>
       <c r="R7">
-        <v>530.0220142704794</v>
+        <v>5077.923999756201</v>
       </c>
       <c r="S7">
-        <v>0.003253921843488121</v>
+        <v>0.003055407518220023</v>
       </c>
       <c r="T7">
-        <v>0.003253921843488121</v>
+        <v>0.003055407518220023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H8">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J8">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.77850517441829</v>
+        <v>5.643036666666666</v>
       </c>
       <c r="N8">
-        <v>4.77850517441829</v>
+        <v>16.92911</v>
       </c>
       <c r="O8">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="P8">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="Q8">
-        <v>205.2687840109309</v>
+        <v>256.8959317874767</v>
       </c>
       <c r="R8">
-        <v>205.2687840109309</v>
+        <v>2312.06338608729</v>
       </c>
       <c r="S8">
-        <v>0.001260190260207867</v>
+        <v>0.0013911779405898</v>
       </c>
       <c r="T8">
-        <v>0.001260190260207867</v>
+        <v>0.001391177940589799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H9">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J9">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.14896106545942</v>
+        <v>4.397218333333333</v>
       </c>
       <c r="N9">
-        <v>4.14896106545942</v>
+        <v>13.191655</v>
       </c>
       <c r="O9">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="P9">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="Q9">
-        <v>178.2256504345477</v>
+        <v>200.1807834578383</v>
       </c>
       <c r="R9">
-        <v>178.2256504345477</v>
+        <v>1801.627051120545</v>
       </c>
       <c r="S9">
-        <v>0.001094166508945991</v>
+        <v>0.001084046322333019</v>
       </c>
       <c r="T9">
-        <v>0.001094166508945991</v>
+        <v>0.001084046322333019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H10">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.1489443744681</v>
+        <v>17.88428466666667</v>
       </c>
       <c r="N10">
-        <v>17.1489443744681</v>
+        <v>53.652854</v>
       </c>
       <c r="O10">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="P10">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="Q10">
-        <v>71050.26566639286</v>
+        <v>79374.30495486404</v>
       </c>
       <c r="R10">
-        <v>71050.26566639286</v>
+        <v>714368.7445937763</v>
       </c>
       <c r="S10">
-        <v>0.4361932244563874</v>
+        <v>0.4298385783477693</v>
       </c>
       <c r="T10">
-        <v>0.4361932244563874</v>
+        <v>0.4298385783477693</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H11">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I11">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J11">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.3385197118536</v>
+        <v>12.393653</v>
       </c>
       <c r="N11">
-        <v>12.3385197118536</v>
+        <v>37.180959</v>
       </c>
       <c r="O11">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115111</v>
       </c>
       <c r="P11">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115112</v>
       </c>
       <c r="Q11">
-        <v>51120.06222157999</v>
+        <v>55005.6997560707</v>
       </c>
       <c r="R11">
-        <v>51120.06222157999</v>
+        <v>495051.2978046362</v>
       </c>
       <c r="S11">
-        <v>0.3138373173654339</v>
+        <v>0.2978743788385739</v>
       </c>
       <c r="T11">
-        <v>0.3138373173654339</v>
+        <v>0.2978743788385739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H12">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I12">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J12">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.77850517441829</v>
+        <v>5.643036666666666</v>
       </c>
       <c r="N12">
-        <v>4.77850517441829</v>
+        <v>16.92911</v>
       </c>
       <c r="O12">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="P12">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="Q12">
-        <v>19797.95693058121</v>
+        <v>25045.01139407119</v>
       </c>
       <c r="R12">
-        <v>19797.95693058121</v>
+        <v>225405.1025466407</v>
       </c>
       <c r="S12">
-        <v>0.121544016622638</v>
+        <v>0.1356271667317642</v>
       </c>
       <c r="T12">
-        <v>0.121544016622638</v>
+        <v>0.1356271667317642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H13">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I13">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J13">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.14896106545942</v>
+        <v>4.397218333333333</v>
       </c>
       <c r="N13">
-        <v>4.14896106545942</v>
+        <v>13.191655</v>
       </c>
       <c r="O13">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="P13">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="Q13">
-        <v>17189.67532364833</v>
+        <v>19515.80146751106</v>
       </c>
       <c r="R13">
-        <v>17189.67532364833</v>
+        <v>175642.2132075996</v>
       </c>
       <c r="S13">
-        <v>0.1055312015578734</v>
+        <v>0.1056846338734234</v>
       </c>
       <c r="T13">
-        <v>0.1055312015578734</v>
+        <v>0.1056846338734234</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H14">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I14">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J14">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.1489443744681</v>
+        <v>17.88428466666667</v>
       </c>
       <c r="N14">
-        <v>17.1489443744681</v>
+        <v>53.652854</v>
       </c>
       <c r="O14">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="P14">
-        <v>0.4464135227852367</v>
+        <v>0.4435785307770658</v>
       </c>
       <c r="Q14">
-        <v>486.7006232398227</v>
+        <v>1198.666983747784</v>
       </c>
       <c r="R14">
-        <v>486.7006232398227</v>
+        <v>10788.00285373005</v>
       </c>
       <c r="S14">
-        <v>0.002987962285640383</v>
+        <v>0.00649118518265504</v>
       </c>
       <c r="T14">
-        <v>0.002987962285640383</v>
+        <v>0.006491185182655041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H15">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I15">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J15">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.3385197118536</v>
+        <v>12.393653</v>
       </c>
       <c r="N15">
-        <v>12.3385197118536</v>
+        <v>37.180959</v>
       </c>
       <c r="O15">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115111</v>
       </c>
       <c r="P15">
-        <v>0.321190735140774</v>
+        <v>0.3073960458115112</v>
       </c>
       <c r="Q15">
-        <v>350.1769614785542</v>
+        <v>830.6657457100047</v>
       </c>
       <c r="R15">
-        <v>350.1769614785542</v>
+        <v>7475.991711390042</v>
       </c>
       <c r="S15">
-        <v>0.002149813466917405</v>
+        <v>0.004498334611197095</v>
       </c>
       <c r="T15">
-        <v>0.002149813466917405</v>
+        <v>0.004498334611197096</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H16">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I16">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J16">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.77850517441829</v>
+        <v>5.643036666666666</v>
       </c>
       <c r="N16">
-        <v>4.77850517441829</v>
+        <v>16.92911</v>
       </c>
       <c r="O16">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="P16">
-        <v>0.1243918740406851</v>
+        <v>0.1399625403182342</v>
       </c>
       <c r="Q16">
-        <v>135.6177614061585</v>
+        <v>378.2159514055755</v>
       </c>
       <c r="R16">
-        <v>135.6177614061585</v>
+        <v>3403.94356265018</v>
       </c>
       <c r="S16">
-        <v>0.0008325872969858601</v>
+        <v>0.002048166682568969</v>
       </c>
       <c r="T16">
-        <v>0.0008325872969858601</v>
+        <v>0.002048166682568969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H17">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I17">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J17">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.14896106545942</v>
+        <v>4.397218333333333</v>
       </c>
       <c r="N17">
-        <v>4.14896106545942</v>
+        <v>13.191655</v>
       </c>
       <c r="O17">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="P17">
-        <v>0.1080038680333043</v>
+        <v>0.1090628830931889</v>
       </c>
       <c r="Q17">
-        <v>117.7508009975973</v>
+        <v>294.7168720883211</v>
       </c>
       <c r="R17">
-        <v>117.7508009975973</v>
+        <v>2652.45184879489</v>
       </c>
       <c r="S17">
-        <v>0.0007228980931700991</v>
+        <v>0.001595991062669234</v>
       </c>
       <c r="T17">
-        <v>0.0007228980931700991</v>
+        <v>0.001595991062669234</v>
       </c>
     </row>
   </sheetData>
